--- a/data/S19/S19_F_C2.xlsx
+++ b/data/S19/S19_F_C2.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c7701233\Nextcloud\Column-Experiment\EEA\data2\S19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E546D3-B477-4AA0-991C-8D4ECF539C7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F6419C-75C4-42A2-BC03-50B9768EC8C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="S19_B_C3" sheetId="1" r:id="rId1"/>
+    <sheet name="S19_F_C2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="137">
   <si>
     <t>Method name: Enzyme Activity Assays</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Time:</t>
   </si>
   <si>
-    <t>16:39</t>
+    <t>16:55</t>
   </si>
   <si>
     <t>System</t>
@@ -136,7 +136,7 @@
     <t>Start Time</t>
   </si>
   <si>
-    <t>2022-06-07 16:36:13</t>
+    <t>2022-06-07 16:51:35</t>
   </si>
   <si>
     <t>Shaking (Double Orbital) Duration [s]</t>
@@ -157,7 +157,7 @@
     <t>End Time</t>
   </si>
   <si>
-    <t>2022-06-07 16:36:18</t>
+    <t>2022-06-07 16:51:40</t>
   </si>
   <si>
     <t>Mode</t>
@@ -283,25 +283,25 @@
     <t>H</t>
   </si>
   <si>
-    <t>2022-06-07 16:37:49</t>
-  </si>
-  <si>
-    <t>2022-06-07 16:37:52</t>
-  </si>
-  <si>
-    <t>2022-06-07 16:39:23</t>
+    <t>2022-06-07 16:53:07</t>
+  </si>
+  <si>
+    <t>2022-06-07 16:53:10</t>
+  </si>
+  <si>
+    <t>2022-06-07 16:54:38</t>
   </si>
   <si>
     <t>Measurement wavelength [nm]</t>
   </si>
   <si>
-    <t>2022-06-07 16:39:26</t>
-  </si>
-  <si>
-    <t>2022-06-07 16:39:49</t>
-  </si>
-  <si>
-    <t>2022-06-07 16:39:51</t>
+    <t>2022-06-07 16:54:40</t>
+  </si>
+  <si>
+    <t>2022-06-07 16:55:04</t>
+  </si>
+  <si>
+    <t>2022-06-07 16:55:06</t>
   </si>
   <si>
     <t>Movement</t>
@@ -310,7 +310,7 @@
     <t>Out</t>
   </si>
   <si>
-    <t>2022-06-07 16:39:59</t>
+    <t>2022-06-07 16:55:13</t>
   </si>
   <si>
     <t>Glu jove method</t>
@@ -343,30 +343,33 @@
     <t>Q factor</t>
   </si>
   <si>
+    <t>Median Quench</t>
+  </si>
+  <si>
+    <t>Q corr</t>
+  </si>
+  <si>
     <t>Fluor per mole (per uM)</t>
   </si>
   <si>
-    <t>Q corr</t>
+    <t>abiotic corr</t>
   </si>
   <si>
     <t>Quench per mole</t>
   </si>
   <si>
-    <t>abiotic corr</t>
+    <t>conc uM</t>
   </si>
   <si>
     <t>Time (min)</t>
   </si>
   <si>
-    <t>conc uM</t>
+    <t>Xyl</t>
   </si>
   <si>
     <t>Sample volume in black plate (mL)</t>
   </si>
   <si>
-    <t>Xyl</t>
-  </si>
-  <si>
     <t>Glu (uM/min)</t>
   </si>
   <si>
@@ -400,22 +403,25 @@
     <t>Fluor</t>
   </si>
   <si>
+    <t>Fluor per mole</t>
+  </si>
+  <si>
     <t>Cbh</t>
   </si>
   <si>
-    <t>1.2um Sol</t>
-  </si>
-  <si>
-    <t>Quenching 3um</t>
-  </si>
-  <si>
-    <t>Median Quench</t>
+    <t>Quench @ 3 um</t>
+  </si>
+  <si>
+    <t>50um</t>
   </si>
   <si>
     <t>XYL (uM/min)</t>
   </si>
   <si>
-    <t>Fluor per mole</t>
+    <t>10um</t>
+  </si>
+  <si>
+    <t>5um</t>
   </si>
   <si>
     <t>* concentration if not enhanced by glycine</t>
@@ -425,28 +431,15 @@
   </si>
   <si>
     <t>Selins AMC Curve</t>
-  </si>
-  <si>
-    <t>50um</t>
-  </si>
-  <si>
-    <t>10um</t>
-  </si>
-  <si>
-    <t>2.5um</t>
-  </si>
-  <si>
-    <t>100um</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -553,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -569,9 +562,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -582,22 +576,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -734,8 +725,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.183063631246345E-2"/>
-                  <c:y val="-0.49652096728196166"/>
+                  <c:x val="0.11234279816212742"/>
+                  <c:y val="-0.18833150822293901"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -768,41 +759,76 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>S19_B_C3!$Q$61:$Q$64</c:f>
+              <c:f>S19_F_C2!$Q$59:$Q$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7902</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>63</c:v>
+                  <c:v>605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S19_B_C3!$R$61:$R$64</c:f>
+              <c:f>S19_F_C2!$R$59:$R$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,7 +836,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-80AB-4948-AB71-25BA1F89BAD1}"/>
+              <c16:uniqueId val="{00000002-EDA0-47DE-B0B3-F5F18B1BB9F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1077,8 +1103,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.0257342336299313E-2"/>
-          <c:y val="0.154237113912292"/>
+          <c:x val="6.7880656562978647E-2"/>
+          <c:y val="0.15873338428930053"/>
           <c:w val="0.89360087349089667"/>
           <c:h val="0.73500460486263808"/>
         </c:manualLayout>
@@ -1163,34 +1189,31 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>S19_B_C3!$Q$92:$Q$96</c:f>
+              <c:f>S19_F_C2!$Q$92:$Q$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12382</c:v>
+                  <c:v>22877</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3704</c:v>
+                  <c:v>6167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1327</c:v>
+                  <c:v>2491</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>755</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
+                  <c:v>1279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S19_B_C3!$R$92:$R$96</c:f>
+              <c:f>S19_F_C2!$R$92:$R$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -1203,16 +1226,13 @@
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AEA4-4DD3-9AF5-6567BEBEE245}"/>
+              <c16:uniqueId val="{00000001-3BD1-4885-9A33-B5648FA34F24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2520,22 +2540,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>521607</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>147411</xdr:rowOff>
+      <xdr:rowOff>117724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>352198</xdr:colOff>
+      <xdr:colOff>243320</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>179248</xdr:rowOff>
+      <xdr:rowOff>15434</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A08B57-EEDE-40FF-AC9B-754DB4997B09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37564D7C-6B24-44AC-A7B4-CA9DCE4B310F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,10 +2590,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91974AC0-39CB-41F4-93E8-0645F3464E45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C57BF8-03CE-4215-AE2A-264AE5038080}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2895,19 +2915,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="80" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="R118" sqref="R118"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="73" workbookViewId="0">
+      <selection activeCell="V128" sqref="V128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -3589,7 +3606,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -3690,24 +3707,24 @@
       </c>
       <c r="X47">
         <f>AVERAGE(B57:D57)</f>
-        <v>27.333333333333332</v>
-      </c>
-      <c r="Y47" s="38" t="s">
+        <v>59.333333333333336</v>
+      </c>
+      <c r="Y47" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="Z47" s="38" t="s">
+      <c r="Z47" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="AA47" s="38" t="s">
+      <c r="AA47" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="AB47" s="38" t="s">
+      <c r="AB47" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="AC47" s="38" t="s">
+      <c r="AC47" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="AD47" s="38" t="s">
+      <c r="AD47" s="30" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3727,19 +3744,19 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="W48" s="44" t="s">
+      <c r="W48" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="X48" s="44">
+      <c r="X48" s="42">
         <f>AVERAGE(E57:I57)</f>
-        <v>12361.2</v>
+        <v>16254.8</v>
       </c>
       <c r="Y48" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="Z48" s="5">
+      <c r="Z48" s="9">
         <f>AVERAGE(B56:D56)</f>
-        <v>17</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
@@ -3764,19 +3781,19 @@
       <c r="K49" s="1"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="W49" s="7"/>
       <c r="X49" s="8">
         <f>MEDIAN(L56,L58:L60)</f>
-        <v>446.5</v>
+        <v>970.5</v>
       </c>
       <c r="Y49" s="5" t="s">
         <v>106</v>
       </c>
       <c r="Z49" s="9">
         <f>(Z48+$S70)/$L$56</f>
-        <v>0.19930911069305243</v>
+        <v>0.21011937787482327</v>
       </c>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
@@ -3800,29 +3817,35 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="V50" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W50" s="10"/>
       <c r="X50" s="8">
         <f>S68/1.2</f>
-        <v>26.954870420017869</v>
+        <v>64.877589453860637</v>
       </c>
       <c r="Y50" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
+      <c r="Z50" s="9">
+        <f>$Z$49*E56</f>
+        <v>1339.0907951962486</v>
+      </c>
+      <c r="AA50" s="9">
+        <f t="shared" ref="AA50:AD50" si="0">$Z$49*F56</f>
+        <v>1415.994487498434</v>
+      </c>
       <c r="AB50" s="9">
-        <f t="shared" ref="AB50:AD50" si="0">$Z$49*G56</f>
-        <v>10008.107684340936</v>
+        <f t="shared" si="0"/>
+        <v>1578.837005351422</v>
       </c>
       <c r="AC50" s="9">
         <f t="shared" si="0"/>
-        <v>9021.9262046317108</v>
+        <v>1658.682368943855</v>
       </c>
       <c r="AD50" s="9">
         <f t="shared" si="0"/>
-        <v>9112.0139226649717</v>
+        <v>1250.6305371109481</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
@@ -3837,30 +3860,36 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="V51" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="W51" s="44"/>
+      <c r="V51" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="W51" s="42"/>
       <c r="X51">
         <f>(X49)/S70</f>
-        <v>6.9206108456264293</v>
+        <v>6.6632467028704427</v>
       </c>
       <c r="Y51" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
+      <c r="Z51" s="11">
+        <f>Z50-($M$56+$Z$48)</f>
+        <v>1254.7574618629153</v>
+      </c>
+      <c r="AA51" s="11">
+        <f t="shared" ref="AA51:AD51" si="1">AA50-($M$56+$Z$48)</f>
+        <v>1331.6611541651007</v>
+      </c>
       <c r="AB51" s="11">
-        <f t="shared" ref="AB51:AD51" si="1">AB50-($M$56+$Z$48)</f>
-        <v>9979.1076843409355</v>
+        <f t="shared" si="1"/>
+        <v>1494.5036720180888</v>
       </c>
       <c r="AC51" s="11">
         <f t="shared" si="1"/>
-        <v>8992.9262046317108</v>
+        <v>1574.3490356105217</v>
       </c>
       <c r="AD51" s="11">
         <f t="shared" si="1"/>
-        <v>9083.0139226649717</v>
+        <v>1166.2972037776149</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
@@ -3879,29 +3908,35 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="V52" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="W52" s="44"/>
+      <c r="V52" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="W52" s="42"/>
       <c r="X52">
         <v>90</v>
       </c>
       <c r="Y52" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="11"/>
+      <c r="Z52" s="11">
+        <f>$S$58*Z51+$T$58</f>
+        <v>9.4919205173637842</v>
+      </c>
+      <c r="AA52" s="11">
+        <f t="shared" ref="AA52:AD52" si="2">$S$58*AA51+$T$58</f>
+        <v>9.9610330404071146</v>
+      </c>
       <c r="AB52" s="11">
-        <f t="shared" ref="AB52:AD52" si="2">$S$58*AB51+$T$58</f>
-        <v>55.311876895193279</v>
+        <f t="shared" si="2"/>
+        <v>10.954372399310342</v>
       </c>
       <c r="AC52" s="11">
         <f t="shared" si="2"/>
-        <v>51.860241716210993</v>
+        <v>11.441429117224182</v>
       </c>
       <c r="AD52" s="11">
         <f t="shared" si="2"/>
-        <v>52.175548729327403</v>
+        <v>8.9523129430434505</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
@@ -3920,33 +3955,30 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" t="s">
-        <v>127</v>
-      </c>
       <c r="U53" s="6"/>
-      <c r="V53" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="W53" s="44"/>
+      <c r="V53" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="W53" s="42"/>
       <c r="X53" s="6">
         <v>0.12</v>
       </c>
       <c r="Y53" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="Z53" s="17" t="s">
+      <c r="Z53" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AA53" s="17" t="s">
+      <c r="AA53" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="AB53" s="17" t="s">
+      <c r="AB53" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="AC53" s="17" t="s">
+      <c r="AC53" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AD53" s="17" t="s">
+      <c r="AD53" s="15" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3963,22 +3995,22 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" t="s">
-        <v>128</v>
-      </c>
-      <c r="V54" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="W54" s="44"/>
+        <v>129</v>
+      </c>
+      <c r="V54" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="W54" s="42"/>
       <c r="X54">
         <f>(X48-Z48)/(X50*X51*X52*X53)</f>
-        <v>6.1271359498168465</v>
+        <v>3.4701638229949836</v>
       </c>
       <c r="Y54" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="Z54" s="30">
+      <c r="Z54" s="31">
         <f>AVERAGE(B58:D58)</f>
-        <v>31.333333333333332</v>
+        <v>68.333333333333329</v>
       </c>
       <c r="AA54" s="12"/>
       <c r="AB54" s="12"/>
@@ -4025,20 +4057,20 @@
       <c r="M55" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="V55" s="44"/>
-      <c r="W55" s="44" t="s">
-        <v>117</v>
+      <c r="V55" s="42"/>
+      <c r="W55" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="X55">
         <f>X54*X52</f>
-        <v>551.44223548351624</v>
+        <v>312.31474406954851</v>
       </c>
       <c r="Y55" s="12" t="s">
         <v>106</v>
       </c>
       <c r="Z55" s="13">
         <f>(Z54+$S$70)/$L$58</f>
-        <v>0.20221679241939192</v>
+        <v>0.20876395204630011</v>
       </c>
       <c r="AA55" s="12"/>
       <c r="AB55" s="12"/>
@@ -4049,71 +4081,71 @@
       <c r="A56" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="28">
-        <v>20</v>
-      </c>
-      <c r="C56" s="28">
-        <v>11</v>
-      </c>
-      <c r="D56" s="28">
-        <v>20</v>
-      </c>
-      <c r="E56" s="28">
-        <v>28592</v>
-      </c>
-      <c r="F56" s="28">
-        <v>27668</v>
-      </c>
-      <c r="G56" s="28">
-        <v>50214</v>
-      </c>
-      <c r="H56" s="28">
-        <v>45266</v>
-      </c>
-      <c r="I56" s="28">
-        <v>45718</v>
-      </c>
-      <c r="J56" s="28">
-        <v>23569</v>
+      <c r="B56" s="18">
+        <v>50</v>
+      </c>
+      <c r="C56" s="18">
+        <v>54</v>
+      </c>
+      <c r="D56" s="18">
+        <v>56</v>
+      </c>
+      <c r="E56" s="18">
+        <v>6373</v>
+      </c>
+      <c r="F56" s="18">
+        <v>6739</v>
+      </c>
+      <c r="G56" s="18">
+        <v>7514</v>
+      </c>
+      <c r="H56" s="18">
+        <v>7894</v>
+      </c>
+      <c r="I56" s="18">
+        <v>5952</v>
+      </c>
+      <c r="J56" s="18">
+        <v>29624</v>
       </c>
       <c r="K56" s="1">
-        <v>25597</v>
-      </c>
-      <c r="L56" s="28">
-        <v>409</v>
-      </c>
-      <c r="M56" s="28">
-        <v>12</v>
-      </c>
-      <c r="Q56" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="R56" s="44"/>
-      <c r="S56" s="44"/>
-      <c r="T56" s="44"/>
+        <v>53676</v>
+      </c>
+      <c r="L56" s="18">
+        <v>947</v>
+      </c>
+      <c r="M56" s="18">
+        <v>31</v>
+      </c>
+      <c r="Q56" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="R56" s="42"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="42"/>
       <c r="W56" s="14"/>
       <c r="Y56" s="12" t="s">
         <v>108</v>
       </c>
       <c r="Z56" s="13">
         <f>$Z$55*E58</f>
-        <v>487.14025293831514</v>
+        <v>538.1934683753617</v>
       </c>
       <c r="AA56" s="13">
         <f t="shared" ref="AA56:AD56" si="3">$Z$55*F58</f>
-        <v>437.19270521072531</v>
+        <v>525.25010334849105</v>
       </c>
       <c r="AB56" s="13">
         <f t="shared" si="3"/>
-        <v>466.91857369637592</v>
+        <v>519.82224059528721</v>
       </c>
       <c r="AC56" s="13">
         <f t="shared" si="3"/>
-        <v>444.06807615298464</v>
+        <v>507.50516742455557</v>
       </c>
       <c r="AD56" s="13">
         <f t="shared" si="3"/>
-        <v>548.41194104139083</v>
+        <v>487.04630012401816</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
@@ -4121,248 +4153,248 @@
         <v>80</v>
       </c>
       <c r="B57" s="1">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D57" s="1">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E57" s="1">
-        <v>12125</v>
+        <v>17257</v>
       </c>
       <c r="F57" s="1">
-        <v>13884</v>
+        <v>17051</v>
       </c>
       <c r="G57" s="1">
-        <v>13012</v>
+        <v>16379</v>
       </c>
       <c r="H57" s="1">
-        <v>10885</v>
+        <v>15161</v>
       </c>
       <c r="I57" s="1">
-        <v>11900</v>
-      </c>
-      <c r="J57" s="1">
-        <v>4523</v>
+        <v>15426</v>
+      </c>
+      <c r="J57" s="18">
+        <v>7902</v>
       </c>
       <c r="K57" s="1">
-        <v>11929</v>
+        <v>25934</v>
       </c>
       <c r="L57" s="1">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="M57" s="1">
-        <v>486</v>
-      </c>
-      <c r="Q57" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="R57" s="16" t="s">
+        <v>1112</v>
+      </c>
+      <c r="Q57" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="S57" s="15" t="s">
+      <c r="R57" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="T57" s="15" t="s">
+      <c r="S57" s="16" t="s">
         <v>121</v>
+      </c>
+      <c r="T57" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="W57" t="s">
         <v>105</v>
       </c>
       <c r="X57">
         <f>AVERAGE(E59:I59)</f>
-        <v>766</v>
+        <v>1205</v>
       </c>
       <c r="Y57" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="Z57" s="17">
+      <c r="Z57" s="15">
         <f>Z56-($M$58+$Z$54)</f>
-        <v>441.80691960498183</v>
-      </c>
-      <c r="AA57" s="17">
+        <v>438.86013504202839</v>
+      </c>
+      <c r="AA57" s="15">
         <f t="shared" ref="AA57:AD57" si="4">AA56-($M$58+$Z$54)</f>
-        <v>391.85937187739199</v>
-      </c>
-      <c r="AB57" s="17">
+        <v>425.91677001515774</v>
+      </c>
+      <c r="AB57" s="15">
         <f t="shared" si="4"/>
-        <v>421.5852403630426</v>
-      </c>
-      <c r="AC57" s="17">
+        <v>420.4889072619539</v>
+      </c>
+      <c r="AC57" s="15">
         <f t="shared" si="4"/>
-        <v>398.73474281965133</v>
-      </c>
-      <c r="AD57" s="17">
+        <v>408.17183409122225</v>
+      </c>
+      <c r="AD57" s="15">
         <f t="shared" si="4"/>
-        <v>503.07860770805752</v>
+        <v>387.71296679068485</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="28">
-        <v>29</v>
-      </c>
-      <c r="C58" s="28">
-        <v>33</v>
-      </c>
-      <c r="D58" s="28">
-        <v>32</v>
-      </c>
-      <c r="E58" s="28">
-        <v>2409</v>
-      </c>
-      <c r="F58" s="28">
-        <v>2162</v>
-      </c>
-      <c r="G58" s="28">
-        <v>2309</v>
-      </c>
-      <c r="H58" s="28">
-        <v>2196</v>
-      </c>
-      <c r="I58" s="28">
-        <v>2712</v>
-      </c>
-      <c r="J58" s="28">
-        <v>269</v>
+      <c r="B58" s="18">
+        <v>53</v>
+      </c>
+      <c r="C58" s="18">
+        <v>86</v>
+      </c>
+      <c r="D58" s="18">
+        <v>66</v>
+      </c>
+      <c r="E58" s="18">
+        <v>2578</v>
+      </c>
+      <c r="F58" s="18">
+        <v>2516</v>
+      </c>
+      <c r="G58" s="18">
+        <v>2490</v>
+      </c>
+      <c r="H58" s="18">
+        <v>2431</v>
+      </c>
+      <c r="I58" s="18">
+        <v>2333</v>
+      </c>
+      <c r="J58" s="18">
+        <v>605</v>
       </c>
       <c r="K58" s="1">
-        <v>3519</v>
-      </c>
-      <c r="L58" s="28">
-        <v>474</v>
-      </c>
-      <c r="M58" s="28">
-        <v>14</v>
-      </c>
-      <c r="Q58" s="28">
-        <v>23569</v>
+        <v>6982</v>
+      </c>
+      <c r="L58" s="18">
+        <v>1025</v>
+      </c>
+      <c r="M58" s="18">
+        <v>31</v>
+      </c>
+      <c r="Q58" s="18">
+        <v>29624</v>
       </c>
       <c r="R58">
         <v>100</v>
       </c>
       <c r="S58">
-        <v>3.5000000000000001E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="T58">
-        <v>20.385000000000002</v>
+        <v>1.8379000000000001</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="V58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X58">
         <f>(X57-Z54)/($X$50*$X$51*$X$52*$X$53)</f>
-        <v>0.36465729204528791</v>
+        <v>0.24346064628743275</v>
       </c>
       <c r="Y58" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="Z58" s="17">
-        <f>$S$59*Z57+$T$59</f>
-        <v>16.472898101265823</v>
-      </c>
-      <c r="AA58" s="17">
-        <f t="shared" ref="AA58:AD58" si="5">$S$59*AA57+$T$59</f>
-        <v>14.60985457102672</v>
-      </c>
-      <c r="AB58" s="17">
+      <c r="Z58" s="31">
+        <f>$S$58*Z57+$T$58</f>
+        <v>4.5149468237563735</v>
+      </c>
+      <c r="AA58" s="31">
+        <f t="shared" ref="AA58:AD58" si="5">$S$58*AA57+$T$58</f>
+        <v>4.4359922970924623</v>
+      </c>
+      <c r="AB58" s="31">
         <f t="shared" si="5"/>
-        <v>15.718629465541488</v>
-      </c>
-      <c r="AC58" s="17">
+        <v>4.4028823342979191</v>
+      </c>
+      <c r="AC58" s="31">
         <f t="shared" si="5"/>
-        <v>14.866305907172993</v>
-      </c>
-      <c r="AD58" s="17">
+        <v>4.3277481879564563</v>
+      </c>
+      <c r="AD58" s="31">
         <f t="shared" si="5"/>
-        <v>18.758332067510548</v>
+        <v>4.2029490974231782</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="28">
-        <v>30</v>
-      </c>
-      <c r="C59" s="28">
-        <v>31</v>
-      </c>
-      <c r="D59" s="28">
-        <v>30</v>
-      </c>
-      <c r="E59" s="28">
-        <v>847</v>
-      </c>
-      <c r="F59" s="28">
-        <v>740</v>
-      </c>
-      <c r="G59" s="28">
-        <v>774</v>
-      </c>
-      <c r="H59" s="28">
-        <v>746</v>
-      </c>
-      <c r="I59" s="28">
-        <v>723</v>
-      </c>
-      <c r="J59" s="28">
-        <v>9688</v>
+      <c r="B59" s="18">
+        <v>51</v>
+      </c>
+      <c r="C59" s="18">
+        <v>58</v>
+      </c>
+      <c r="D59" s="18">
+        <v>59</v>
+      </c>
+      <c r="E59" s="18">
+        <v>1258</v>
+      </c>
+      <c r="F59" s="18">
+        <v>1183</v>
+      </c>
+      <c r="G59" s="18">
+        <v>1162</v>
+      </c>
+      <c r="H59" s="18">
+        <v>1260</v>
+      </c>
+      <c r="I59" s="18">
+        <v>1162</v>
+      </c>
+      <c r="J59" s="18">
+        <v>293</v>
       </c>
       <c r="K59" s="1">
-        <v>1255</v>
-      </c>
-      <c r="L59" s="28">
-        <v>440</v>
-      </c>
-      <c r="M59" s="28">
-        <v>15</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>4523</v>
+        <v>2822</v>
+      </c>
+      <c r="L59" s="18">
+        <v>994</v>
+      </c>
+      <c r="M59" s="18">
+        <v>32</v>
+      </c>
+      <c r="Q59" s="18">
+        <v>7902</v>
       </c>
       <c r="R59">
         <v>50</v>
       </c>
       <c r="S59">
-        <v>3.73E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="T59">
-        <v>-6.4999999999999997E-3</v>
-      </c>
-      <c r="U59" s="15" t="s">
-        <v>136</v>
+        <v>-0.1386</v>
+      </c>
+      <c r="U59" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="W59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="X59">
         <f>X58*X52</f>
-        <v>32.819156284075909</v>
-      </c>
-      <c r="Y59" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z59" s="21" t="s">
+        <v>21.911458165868947</v>
+      </c>
+      <c r="Y59" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z59" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="AA59" s="21" t="s">
+      <c r="AA59" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="AB59" s="21" t="s">
+      <c r="AB59" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="AC59" s="21" t="s">
+      <c r="AC59" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="AD59" s="21" t="s">
+      <c r="AD59" s="22" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4370,193 +4402,195 @@
       <c r="A60" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="28">
-        <v>30</v>
-      </c>
-      <c r="C60" s="28">
-        <v>34</v>
-      </c>
-      <c r="D60" s="28">
-        <v>32</v>
-      </c>
-      <c r="E60" s="28">
-        <v>33651</v>
-      </c>
-      <c r="F60" s="28">
-        <v>30725</v>
-      </c>
-      <c r="G60" s="28">
-        <v>28062</v>
-      </c>
-      <c r="H60" s="28">
-        <v>29424</v>
-      </c>
-      <c r="I60" s="28">
-        <v>33127</v>
-      </c>
-      <c r="J60" s="28">
-        <v>63</v>
+      <c r="B60" s="18">
+        <v>48</v>
+      </c>
+      <c r="C60" s="18">
+        <v>58</v>
+      </c>
+      <c r="D60" s="18">
+        <v>57</v>
+      </c>
+      <c r="E60" s="18">
+        <v>33114</v>
+      </c>
+      <c r="F60" s="18">
+        <v>33088</v>
+      </c>
+      <c r="G60" s="18">
+        <v>34370</v>
+      </c>
+      <c r="H60" s="18">
+        <v>34083</v>
+      </c>
+      <c r="I60" s="18">
+        <v>32726</v>
+      </c>
+      <c r="J60" s="18">
+        <v>150</v>
       </c>
       <c r="K60" s="1">
-        <v>704</v>
-      </c>
-      <c r="L60" s="28">
-        <v>453</v>
-      </c>
-      <c r="M60" s="28">
-        <v>33</v>
-      </c>
-      <c r="Q60" s="28">
-        <v>269</v>
+        <v>1421</v>
+      </c>
+      <c r="L60" s="18">
+        <v>530</v>
+      </c>
+      <c r="M60" s="18">
+        <v>50</v>
+      </c>
+      <c r="Q60" s="18">
+        <v>605</v>
       </c>
       <c r="R60">
         <v>10</v>
       </c>
       <c r="S60">
-        <v>4.3900000000000002E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="T60">
-        <v>-0.26179999999999998</v>
-      </c>
-      <c r="U60" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y60" s="18" t="s">
+        <v>-0.17799999999999999</v>
+      </c>
+      <c r="U60" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y60" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="Z60" s="31">
+      <c r="Z60" s="32">
         <f>AVERAGE(B59:D59)</f>
-        <v>30.333333333333332</v>
-      </c>
-      <c r="AA60" s="18"/>
-      <c r="AB60" s="18"/>
-      <c r="AC60" s="18"/>
-      <c r="AD60" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="AA60" s="19"/>
+      <c r="AB60" s="19"/>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B61" s="29">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="C61" s="29">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="D61" s="29">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="E61" s="29">
-        <v>2052</v>
+        <v>1357</v>
       </c>
       <c r="F61" s="29">
-        <v>1842</v>
+        <v>1324</v>
       </c>
       <c r="G61" s="29">
-        <v>1859</v>
+        <v>1303</v>
       </c>
       <c r="H61" s="29">
-        <v>1637</v>
+        <v>1294</v>
       </c>
       <c r="I61" s="29">
-        <v>1690</v>
+        <v>1277</v>
       </c>
       <c r="J61" s="29">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="K61" s="29">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="L61" s="29">
-        <v>1227</v>
+        <v>2525</v>
       </c>
       <c r="M61" s="29">
-        <v>40</v>
-      </c>
-      <c r="Q61" s="28"/>
+        <v>90</v>
+      </c>
+      <c r="Q61" s="18">
+        <v>293</v>
+      </c>
       <c r="R61">
         <v>5</v>
       </c>
-      <c r="Y61" s="18" t="s">
+      <c r="Y61" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="Z61" s="19">
+      <c r="Z61" s="20">
         <f>(Z60+$S70)/$L$59</f>
-        <v>0.21556990819725402</v>
-      </c>
-      <c r="AA61" s="18"/>
-      <c r="AB61" s="18"/>
-      <c r="AC61" s="18"/>
-      <c r="AD61" s="18"/>
+        <v>0.20286691902829407</v>
+      </c>
+      <c r="AA61" s="19"/>
+      <c r="AB61" s="19"/>
+      <c r="AC61" s="19"/>
+      <c r="AD61" s="19"/>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B62" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C62" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D62" s="1">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E62" s="1">
+        <v>22</v>
+      </c>
+      <c r="F62" s="1">
+        <v>22</v>
+      </c>
+      <c r="G62" s="1">
+        <v>20</v>
+      </c>
+      <c r="H62" s="1">
+        <v>21</v>
+      </c>
+      <c r="I62" s="1">
+        <v>21</v>
+      </c>
+      <c r="J62" s="1">
+        <v>25</v>
+      </c>
+      <c r="K62" s="1">
+        <v>137</v>
+      </c>
+      <c r="L62" s="1">
         <v>11</v>
       </c>
-      <c r="F62" s="1">
-        <v>11</v>
-      </c>
-      <c r="G62" s="1">
-        <v>11</v>
-      </c>
-      <c r="H62" s="1">
-        <v>11</v>
-      </c>
-      <c r="I62" s="1">
-        <v>11</v>
-      </c>
-      <c r="J62" s="28">
-        <v>12</v>
-      </c>
-      <c r="K62" s="1">
-        <v>59</v>
-      </c>
-      <c r="L62" s="1">
-        <v>5</v>
-      </c>
       <c r="M62" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q62" s="28">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="Q62" s="18">
+        <v>150</v>
       </c>
       <c r="R62">
         <v>2.5</v>
       </c>
-      <c r="Y62" s="18" t="s">
+      <c r="Y62" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z62" s="19">
+      <c r="Z62" s="20">
         <f>$Z$61*E59</f>
-        <v>182.58771224307415</v>
-      </c>
-      <c r="AA62" s="19">
+        <v>255.20658413759395</v>
+      </c>
+      <c r="AA62" s="20">
         <f t="shared" ref="AA62:AD62" si="6">$Z$61*F59</f>
-        <v>159.52173206596797</v>
-      </c>
-      <c r="AB62" s="19">
+        <v>239.99156521047189</v>
+      </c>
+      <c r="AB62" s="20">
         <f t="shared" si="6"/>
-        <v>166.85110894467462</v>
-      </c>
-      <c r="AC62" s="19">
+        <v>235.7313599108777</v>
+      </c>
+      <c r="AC62" s="20">
         <f t="shared" si="6"/>
-        <v>160.81515151515151</v>
-      </c>
-      <c r="AD62" s="19">
+        <v>255.61231797565051</v>
+      </c>
+      <c r="AD62" s="20">
         <f t="shared" si="6"/>
-        <v>155.85704362661465</v>
+        <v>235.7313599108777</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
@@ -4564,69 +4598,69 @@
         <v>86</v>
       </c>
       <c r="B63" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C63" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D63" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E63" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F63" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G63" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H63" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I63" s="1">
-        <v>5</v>
-      </c>
-      <c r="J63" s="28">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="J63" s="1">
+        <v>21</v>
       </c>
       <c r="K63" s="1">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="L63" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M63" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q63" s="29">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="R63">
         <v>0.5</v>
       </c>
-      <c r="Y63" s="18" t="s">
+      <c r="Y63" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="Z63" s="20">
+      <c r="Z63" s="21">
         <f>Z62-($M$59+$Z$60)</f>
-        <v>137.25437890974081</v>
-      </c>
-      <c r="AA63" s="20">
+        <v>167.20658413759395</v>
+      </c>
+      <c r="AA63" s="21">
         <f t="shared" ref="AA63:AD63" si="7">AA62-($M$59+$Z$60)</f>
-        <v>114.18839873263464</v>
-      </c>
-      <c r="AB63" s="20">
+        <v>151.99156521047189</v>
+      </c>
+      <c r="AB63" s="21">
         <f t="shared" si="7"/>
-        <v>121.51777561134129</v>
-      </c>
-      <c r="AC63" s="20">
+        <v>147.7313599108777</v>
+      </c>
+      <c r="AC63" s="21">
         <f t="shared" si="7"/>
-        <v>115.48181818181818</v>
-      </c>
-      <c r="AD63" s="20">
+        <v>167.61231797565051</v>
+      </c>
+      <c r="AD63" s="21">
         <f t="shared" si="7"/>
-        <v>110.52371029328133</v>
+        <v>147.7313599108777</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
@@ -4641,34 +4675,34 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-      <c r="Q64" s="28">
-        <v>12</v>
+      <c r="Q64" s="1">
+        <v>25</v>
       </c>
       <c r="R64">
         <v>0.25</v>
       </c>
-      <c r="Y64" s="18" t="s">
+      <c r="Y64" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="Z64" s="31">
-        <f>$S$59*Z63+$T$59</f>
-        <v>5.1130883333333319</v>
-      </c>
-      <c r="AA64" s="31">
-        <f t="shared" ref="AA64:AD64" si="8">$S$60*AA63+$T$60</f>
-        <v>4.751070704362661</v>
-      </c>
-      <c r="AB64" s="31">
+      <c r="Z64" s="32">
+        <f>$S$58*Z63+$T$58</f>
+        <v>2.857860163239323</v>
+      </c>
+      <c r="AA64" s="32">
+        <f t="shared" ref="AA64:AD64" si="8">$S$58*AA63+$T$58</f>
+        <v>2.7650485477838789</v>
+      </c>
+      <c r="AB64" s="32">
         <f t="shared" si="8"/>
-        <v>5.0728303493378828</v>
-      </c>
-      <c r="AC64" s="31">
+        <v>2.739061295456354</v>
+      </c>
+      <c r="AC64" s="32">
         <f t="shared" si="8"/>
-        <v>4.8078518181818186</v>
-      </c>
-      <c r="AD64" s="31">
+        <v>2.8603351396514682</v>
+      </c>
+      <c r="AD64" s="32">
         <f t="shared" si="8"/>
-        <v>4.5901908818750501</v>
+        <v>2.739061295456354</v>
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.25">
@@ -4683,28 +4717,28 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="Q65" s="28">
-        <v>9</v>
+      <c r="Q65" s="1">
+        <v>21</v>
       </c>
       <c r="R65">
         <v>0.1</v>
       </c>
-      <c r="Y65" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z65" s="39" t="s">
+      <c r="Y65" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z65" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="AA65" s="39" t="s">
+      <c r="AA65" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="AB65" s="39" t="s">
+      <c r="AB65" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="AC65" s="39" t="s">
+      <c r="AC65" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="AD65" s="39" t="s">
+      <c r="AD65" s="33" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4730,17 +4764,17 @@
       <c r="R66">
         <v>0</v>
       </c>
-      <c r="Y66" s="22" t="s">
+      <c r="Y66" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Z66" s="22">
+      <c r="Z66" s="24">
         <f>AVERAGE(B60:D60)</f>
-        <v>32</v>
-      </c>
-      <c r="AA66" s="22"/>
-      <c r="AB66" s="22"/>
-      <c r="AC66" s="22"/>
-      <c r="AD66" s="22"/>
+        <v>54.333333333333336</v>
+      </c>
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="23"/>
+      <c r="AD66" s="23"/>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
@@ -4754,26 +4788,26 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="R67" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="S67" s="15" t="s">
+      <c r="R67" s="16" t="s">
         <v>125</v>
       </c>
+      <c r="S67" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="T67" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y67" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y67" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="Z67" s="23">
+      <c r="Z67" s="24">
         <f>(Z66+$S70)/$L$60</f>
-        <v>0.21306275115553738</v>
-      </c>
-      <c r="AA67" s="22"/>
-      <c r="AB67" s="22"/>
-      <c r="AC67" s="22"/>
-      <c r="AD67" s="22"/>
+        <v>0.3773265110329389</v>
+      </c>
+      <c r="AA67" s="23"/>
+      <c r="AB67" s="23"/>
+      <c r="AC67" s="23"/>
+      <c r="AD67" s="23"/>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -4791,39 +4825,39 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="R68" s="15">
+      <c r="R68" s="16">
         <v>1.2</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S69" si="9">(R68-$T$59)/$S$59</f>
-        <v>32.345844504021443</v>
+        <f>(R68-$T$60)/$S$60</f>
+        <v>77.853107344632761</v>
       </c>
       <c r="T68">
         <f>S68/R68</f>
-        <v>26.954870420017869</v>
-      </c>
-      <c r="Y68" s="22" t="s">
+        <v>64.877589453860637</v>
+      </c>
+      <c r="Y68" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Z68" s="23">
+      <c r="Z68" s="24">
         <f>$Z$67*E60</f>
-        <v>7169.7746391349883</v>
-      </c>
-      <c r="AA68" s="23">
-        <f t="shared" ref="AA68:AD68" si="10">$Z$67*F60</f>
-        <v>6546.3530292538862</v>
-      </c>
-      <c r="AB68" s="23">
-        <f t="shared" si="10"/>
-        <v>5978.9669229266901</v>
-      </c>
-      <c r="AC68" s="23">
-        <f t="shared" si="10"/>
-        <v>6269.1583900005317</v>
-      </c>
-      <c r="AD68" s="23">
-        <f t="shared" si="10"/>
-        <v>7058.1297575294866</v>
+        <v>12494.790086344739</v>
+      </c>
+      <c r="AA68" s="24">
+        <f t="shared" ref="AA68:AD68" si="9">$Z$67*F60</f>
+        <v>12484.979597057882</v>
+      </c>
+      <c r="AB68" s="24">
+        <f t="shared" si="9"/>
+        <v>12968.71218420211</v>
+      </c>
+      <c r="AC68" s="24">
+        <f t="shared" si="9"/>
+        <v>12860.419475535657</v>
+      </c>
+      <c r="AD68" s="24">
+        <f t="shared" si="9"/>
+        <v>12348.387400063959</v>
       </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.25">
@@ -4846,35 +4880,35 @@
         <v>2.5</v>
       </c>
       <c r="S69">
-        <f t="shared" si="9"/>
-        <v>67.198391420911534</v>
+        <f>(R69-$T$60)/$S$60</f>
+        <v>151.29943502824858</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69" si="11">S69/R69</f>
-        <v>26.879356568364614</v>
-      </c>
-      <c r="Y69" s="22" t="s">
+        <f t="shared" ref="T69:T70" si="10">S69/R69</f>
+        <v>60.519774011299432</v>
+      </c>
+      <c r="Y69" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z69" s="24">
+      <c r="Z69" s="25">
         <f>Z68-($Z$66+$M$60)</f>
-        <v>7104.7746391349883</v>
-      </c>
-      <c r="AA69" s="24">
-        <f t="shared" ref="AA69:AD69" si="12">AA68-($Z$66+$M$60)</f>
-        <v>6481.3530292538862</v>
-      </c>
-      <c r="AB69" s="24">
-        <f t="shared" si="12"/>
-        <v>5913.9669229266901</v>
-      </c>
-      <c r="AC69" s="24">
-        <f t="shared" si="12"/>
-        <v>6204.1583900005317</v>
-      </c>
-      <c r="AD69" s="24">
-        <f t="shared" si="12"/>
-        <v>6993.1297575294866</v>
+        <v>12390.456753011405</v>
+      </c>
+      <c r="AA69" s="25">
+        <f t="shared" ref="AA69:AD69" si="11">AA68-($Z$66+$M$60)</f>
+        <v>12380.646263724548</v>
+      </c>
+      <c r="AB69" s="25">
+        <f t="shared" si="11"/>
+        <v>12864.378850868776</v>
+      </c>
+      <c r="AC69" s="25">
+        <f t="shared" si="11"/>
+        <v>12756.086142202323</v>
+      </c>
+      <c r="AD69" s="25">
+        <f t="shared" si="11"/>
+        <v>12244.054066730625</v>
       </c>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.25">
@@ -4902,31 +4936,35 @@
         <v>2.4</v>
       </c>
       <c r="S70">
-        <f>(R70-$T$59)/$S$59</f>
-        <v>64.51742627345844</v>
-      </c>
-      <c r="Y70" s="22" t="s">
+        <f>(R70-$T$60)/$S$60</f>
+        <v>145.64971751412429</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="10"/>
+        <v>60.687382297551792</v>
+      </c>
+      <c r="Y70" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="Z70" s="24">
-        <f>$S$59*Z69+$T$59</f>
-        <v>265.00159403973504</v>
-      </c>
-      <c r="AA70" s="24">
-        <f t="shared" ref="AA70:AD70" si="13">$S$59*AA69+$T$59</f>
-        <v>241.74796799116996</v>
-      </c>
-      <c r="AB70" s="24">
-        <f t="shared" si="13"/>
-        <v>220.58446622516556</v>
-      </c>
-      <c r="AC70" s="24">
-        <f t="shared" si="13"/>
-        <v>231.40860794701985</v>
-      </c>
-      <c r="AD70" s="24">
-        <f t="shared" si="13"/>
-        <v>260.83723995584984</v>
+      <c r="Z70" s="25">
+        <f>$S$58*Z69+$T$58</f>
+        <v>77.419686193369586</v>
+      </c>
+      <c r="AA70" s="25">
+        <f t="shared" ref="AA70:AD70" si="12">$S$58*AA69+$T$58</f>
+        <v>77.359842208719755</v>
+      </c>
+      <c r="AB70" s="25">
+        <f t="shared" si="12"/>
+        <v>80.310610990299537</v>
+      </c>
+      <c r="AC70" s="25">
+        <f t="shared" si="12"/>
+        <v>79.650025467434176</v>
+      </c>
+      <c r="AD70" s="25">
+        <f t="shared" si="12"/>
+        <v>76.526629807056821</v>
       </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
@@ -4954,25 +4992,25 @@
         <v>6.4</v>
       </c>
       <c r="S71">
-        <f>(R71-$T$59)/$S$59</f>
-        <v>171.75603217158178</v>
-      </c>
-      <c r="Y71" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z71" s="27" t="s">
+        <f>(R71-$T$60)/$S$60</f>
+        <v>371.63841807909603</v>
+      </c>
+      <c r="Y71" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z71" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="AA71" s="27" t="s">
+      <c r="AA71" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="AB71" s="27" t="s">
+      <c r="AB71" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="AC71" s="27" t="s">
+      <c r="AC71" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="AD71" s="27" t="s">
+      <c r="AD71" s="28" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4994,25 +5032,25 @@
       <c r="K72" s="1"/>
       <c r="R72">
         <f>S72*S58+T58</f>
-        <v>23.885000000000002</v>
+        <v>7.9379000000000008</v>
       </c>
       <c r="S72">
         <v>1000</v>
       </c>
       <c r="T72" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y72" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y72" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="Z72" s="33">
-        <f>AVERAGE(B61:D61)</f>
-        <v>185.33333333333334</v>
-      </c>
-      <c r="AA72" s="25"/>
-      <c r="AB72" s="25"/>
-      <c r="AC72" s="25"/>
-      <c r="AD72" s="25"/>
+      <c r="Z72" s="34">
+        <f>AVERAGE(D61,B61)</f>
+        <v>77</v>
+      </c>
+      <c r="AA72" s="26"/>
+      <c r="AB72" s="26"/>
+      <c r="AC72" s="26"/>
+      <c r="AD72" s="26"/>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -5030,17 +5068,17 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-      <c r="Y73" s="25" t="s">
+      <c r="Y73" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="Z73" s="26">
+      <c r="Z73" s="27">
         <f>(Z72+$S71)/$L$61</f>
-        <v>0.29102637775461704</v>
-      </c>
-      <c r="AA73" s="25"/>
-      <c r="AB73" s="25"/>
-      <c r="AC73" s="25"/>
-      <c r="AD73" s="25"/>
+        <v>0.17767858141746376</v>
+      </c>
+      <c r="AA73" s="26"/>
+      <c r="AB73" s="26"/>
+      <c r="AC73" s="26"/>
+      <c r="AD73" s="26"/>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -5058,28 +5096,28 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-      <c r="Y74" s="25" t="s">
+      <c r="Y74" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="Z74" s="26">
+      <c r="Z74" s="27">
         <f>$Z$73*E61</f>
-        <v>597.18612715247411</v>
-      </c>
-      <c r="AA74" s="26">
-        <f t="shared" ref="AA74:AD74" si="14">$Z$73*F61</f>
-        <v>536.07058782400463</v>
-      </c>
-      <c r="AB74" s="26">
-        <f t="shared" si="14"/>
-        <v>541.01803624583306</v>
-      </c>
-      <c r="AC74" s="26">
-        <f t="shared" si="14"/>
-        <v>476.41018038430809</v>
-      </c>
-      <c r="AD74" s="26">
-        <f t="shared" si="14"/>
-        <v>491.83457840530281</v>
+        <v>241.10983498349833</v>
+      </c>
+      <c r="AA74" s="27">
+        <f t="shared" ref="AA74:AD74" si="13">$Z$73*F61</f>
+        <v>235.24644179672202</v>
+      </c>
+      <c r="AB74" s="27">
+        <f t="shared" si="13"/>
+        <v>231.51519158695527</v>
+      </c>
+      <c r="AC74" s="27">
+        <f t="shared" si="13"/>
+        <v>229.91608435419812</v>
+      </c>
+      <c r="AD74" s="27">
+        <f t="shared" si="13"/>
+        <v>226.89554847010123</v>
       </c>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.25">
@@ -5098,28 +5136,28 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-      <c r="Y75" s="25" t="s">
+      <c r="Y75" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="Z75" s="27">
+      <c r="Z75" s="28">
         <f>Z74-($Z$72+$M$61)</f>
-        <v>371.85279381914074</v>
-      </c>
-      <c r="AA75" s="27">
-        <f t="shared" ref="AA75:AD75" si="15">AA74-($Z$72+$M$61)</f>
-        <v>310.73725449067126</v>
-      </c>
-      <c r="AB75" s="27">
-        <f t="shared" si="15"/>
-        <v>315.68470291249969</v>
-      </c>
-      <c r="AC75" s="27">
-        <f t="shared" si="15"/>
-        <v>251.07684705097475</v>
-      </c>
-      <c r="AD75" s="27">
-        <f t="shared" si="15"/>
-        <v>266.50124507196949</v>
+        <v>74.109834983498331</v>
+      </c>
+      <c r="AA75" s="28">
+        <f t="shared" ref="AA75:AD75" si="14">AA74-($Z$72+$M$61)</f>
+        <v>68.246441796722024</v>
+      </c>
+      <c r="AB75" s="28">
+        <f t="shared" si="14"/>
+        <v>64.515191586955268</v>
+      </c>
+      <c r="AC75" s="28">
+        <f t="shared" si="14"/>
+        <v>62.916084354198119</v>
+      </c>
+      <c r="AD75" s="28">
+        <f t="shared" si="14"/>
+        <v>59.895548470101232</v>
       </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.25">
@@ -5130,7 +5168,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -5138,28 +5176,28 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-      <c r="Y76" s="25" t="s">
+      <c r="Y76" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="Z76" s="27">
-        <f>$S$59*Z75+$T$59</f>
-        <v>13.86360920945395</v>
-      </c>
-      <c r="AA76" s="27">
-        <f t="shared" ref="AA76:AD76" si="16">$S$59*AA75+$T$59</f>
-        <v>11.583999592502037</v>
-      </c>
-      <c r="AB76" s="27">
-        <f t="shared" si="16"/>
-        <v>11.768539418636237</v>
-      </c>
-      <c r="AC76" s="27">
-        <f t="shared" si="16"/>
-        <v>9.3586663950013573</v>
-      </c>
-      <c r="AD76" s="27">
-        <f t="shared" si="16"/>
-        <v>9.9339964411844619</v>
+      <c r="Z76" s="34">
+        <f>$S$58*Z75+$T$58</f>
+        <v>2.2899699933993398</v>
+      </c>
+      <c r="AA76" s="34">
+        <f t="shared" ref="AA76:AD76" si="15">$S$58*AA75+$T$58</f>
+        <v>2.2542032949600044</v>
+      </c>
+      <c r="AB76" s="34">
+        <f t="shared" si="15"/>
+        <v>2.2314426686804274</v>
+      </c>
+      <c r="AC76" s="34">
+        <f t="shared" si="15"/>
+        <v>2.2216881145606084</v>
+      </c>
+      <c r="AD76" s="34">
+        <f t="shared" si="15"/>
+        <v>2.2032628456676178</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.25">
@@ -5178,12 +5216,12 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-      <c r="Y77" s="40"/>
-      <c r="Z77" s="41"/>
-      <c r="AA77" s="41"/>
-      <c r="AB77" s="41"/>
-      <c r="AC77" s="41"/>
-      <c r="AD77" s="41"/>
+      <c r="Y77" s="35"/>
+      <c r="Z77" s="36"/>
+      <c r="AA77" s="36"/>
+      <c r="AB77" s="36"/>
+      <c r="AC77" s="36"/>
+      <c r="AD77" s="36"/>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -5218,22 +5256,22 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
-      <c r="Y79" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z79" s="32" t="s">
+      <c r="Y79" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z79" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="AA79" s="32" t="s">
+      <c r="AA79" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="AB79" s="32" t="s">
+      <c r="AB79" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="AC79" s="32" t="s">
+      <c r="AC79" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AD79" s="32" t="s">
+      <c r="AD79" s="37" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5253,17 +5291,17 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
-      <c r="Y80" s="32" t="s">
+      <c r="Y80" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="Z80" s="32">
+      <c r="Z80" s="38">
         <f>AVERAGE($B$91:$D$91)</f>
-        <v>26</v>
-      </c>
-      <c r="AA80" s="32"/>
-      <c r="AB80" s="32"/>
-      <c r="AC80" s="32"/>
-      <c r="AD80" s="32"/>
+        <v>43.666666666666664</v>
+      </c>
+      <c r="AA80" s="37"/>
+      <c r="AB80" s="37"/>
+      <c r="AC80" s="37"/>
+      <c r="AD80" s="37"/>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -5281,17 +5319,17 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
-      <c r="Y81" s="32" t="s">
+      <c r="Y81" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="Z81" s="42">
+      <c r="Z81" s="38">
         <f>(Z80+S103)/L91</f>
-        <v>0.50120192307692313</v>
-      </c>
-      <c r="AA81" s="42"/>
-      <c r="AB81" s="42"/>
-      <c r="AC81" s="42"/>
-      <c r="AD81" s="42"/>
+        <v>0.60557667934093784</v>
+      </c>
+      <c r="AA81" s="37"/>
+      <c r="AB81" s="37"/>
+      <c r="AC81" s="37"/>
+      <c r="AD81" s="37"/>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -5309,28 +5347,28 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
-      <c r="Y82" s="32" t="s">
+      <c r="Y82" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="Z82" s="42">
+      <c r="Z82" s="38">
         <f>$Z$81*E$91</f>
-        <v>6231.4435096153857</v>
-      </c>
-      <c r="AA82" s="42">
-        <f t="shared" ref="AA82:AD82" si="17">$Z$81*F$91</f>
-        <v>7108.5468750000009</v>
-      </c>
-      <c r="AB82" s="42">
-        <f t="shared" si="17"/>
-        <v>6968.711538461539</v>
-      </c>
-      <c r="AC82" s="42">
-        <f t="shared" si="17"/>
-        <v>5684.1310096153848</v>
-      </c>
-      <c r="AD82" s="42">
-        <f t="shared" si="17"/>
-        <v>6049.0060096153857</v>
+        <v>9476.6694550063366</v>
+      </c>
+      <c r="AA82" s="38">
+        <f t="shared" ref="AA82:AD82" si="16">$Z$81*F$91</f>
+        <v>9313.7693282636246</v>
+      </c>
+      <c r="AB82" s="38">
+        <f t="shared" si="16"/>
+        <v>9124.2238276299104</v>
+      </c>
+      <c r="AC82" s="38">
+        <f t="shared" si="16"/>
+        <v>8120.1776932826351</v>
+      </c>
+      <c r="AD82" s="38">
+        <f t="shared" si="16"/>
+        <v>8558.6152091254753</v>
       </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.25">
@@ -5349,28 +5387,28 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
-      <c r="Y83" s="32" t="s">
+      <c r="Y83" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="Z83" s="42">
+      <c r="Z83" s="38">
         <f>Z82-($Z$80+$M$91)</f>
-        <v>5372.4435096153857</v>
-      </c>
-      <c r="AA83" s="42">
-        <f t="shared" ref="AA83:AD83" si="18">AA82-($Z$80+$M$91)</f>
-        <v>6249.5468750000009</v>
-      </c>
-      <c r="AB83" s="42">
-        <f t="shared" si="18"/>
-        <v>6109.711538461539</v>
-      </c>
-      <c r="AC83" s="42">
-        <f t="shared" si="18"/>
-        <v>4825.1310096153848</v>
-      </c>
-      <c r="AD83" s="42">
-        <f t="shared" si="18"/>
-        <v>5190.0060096153857</v>
+        <v>7851.0027883396697</v>
+      </c>
+      <c r="AA83" s="38">
+        <f t="shared" ref="AA83:AD83" si="17">AA82-($Z$80+$M$91)</f>
+        <v>7688.1026615969577</v>
+      </c>
+      <c r="AB83" s="38">
+        <f t="shared" si="17"/>
+        <v>7498.5571609632434</v>
+      </c>
+      <c r="AC83" s="38">
+        <f t="shared" si="17"/>
+        <v>6494.5110266159681</v>
+      </c>
+      <c r="AD83" s="38">
+        <f t="shared" si="17"/>
+        <v>6932.9485424588083</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.25">
@@ -5389,28 +5427,28 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-      <c r="Y84" s="32" t="s">
+      <c r="Y84" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="Z84" s="42">
+      <c r="Z84" s="38">
         <f>Z83*$S$91+$T$91</f>
-        <v>20.773818389423084</v>
-      </c>
-      <c r="AA84" s="42">
-        <f t="shared" ref="AA84:AD84" si="19">AA83*$S$91+$T$91</f>
-        <v>24.369942187500005</v>
-      </c>
-      <c r="AB84" s="42">
-        <f t="shared" si="19"/>
-        <v>23.796617307692312</v>
-      </c>
-      <c r="AC84" s="42">
-        <f t="shared" si="19"/>
-        <v>18.52983713942308</v>
-      </c>
-      <c r="AD84" s="42">
-        <f t="shared" si="19"/>
-        <v>20.025824639423082</v>
+        <v>15.898606134347276</v>
+      </c>
+      <c r="AA84" s="38">
+        <f t="shared" ref="AA84:AD84" si="18">AA83*$S$91+$T$91</f>
+        <v>15.540225855513309</v>
+      </c>
+      <c r="AB84" s="38">
+        <f t="shared" si="18"/>
+        <v>15.123225754119137</v>
+      </c>
+      <c r="AC84" s="38">
+        <f t="shared" si="18"/>
+        <v>12.914324258555132</v>
+      </c>
+      <c r="AD84" s="38">
+        <f t="shared" si="18"/>
+        <v>13.878886793409379</v>
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.25">
@@ -5514,7 +5552,7 @@
         <v>78</v>
       </c>
       <c r="Q89" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
@@ -5522,108 +5560,108 @@
         <v>79</v>
       </c>
       <c r="B90" s="1">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C90" s="1">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D90" s="1">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E90" s="1">
-        <v>26470</v>
+        <v>5028</v>
       </c>
       <c r="F90" s="1">
-        <v>25936</v>
+        <v>5343</v>
       </c>
       <c r="G90" s="1">
-        <v>48267</v>
+        <v>6040</v>
       </c>
       <c r="H90" s="1">
-        <v>42866</v>
+        <v>6272</v>
       </c>
       <c r="I90" s="1">
-        <v>43264</v>
+        <v>4665</v>
       </c>
       <c r="J90" s="1">
-        <v>22610</v>
-      </c>
-      <c r="K90" s="34">
-        <v>26518</v>
+        <v>24910</v>
+      </c>
+      <c r="K90" s="39">
+        <v>48489</v>
       </c>
       <c r="L90" s="1">
-        <v>366</v>
+        <v>741</v>
       </c>
       <c r="M90" s="1">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="Q90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R90" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S90" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B91" s="34">
-        <v>22</v>
-      </c>
-      <c r="C91" s="34">
-        <v>22</v>
-      </c>
-      <c r="D91" s="34">
-        <v>34</v>
-      </c>
-      <c r="E91" s="34">
-        <v>12433</v>
-      </c>
-      <c r="F91" s="34">
-        <v>14183</v>
-      </c>
-      <c r="G91" s="34">
-        <v>13904</v>
-      </c>
-      <c r="H91" s="34">
-        <v>11341</v>
-      </c>
-      <c r="I91" s="34">
-        <v>12069</v>
-      </c>
-      <c r="J91" s="34">
-        <v>4891</v>
-      </c>
-      <c r="K91" s="34">
-        <v>12382</v>
-      </c>
-      <c r="L91" s="34">
-        <v>156</v>
-      </c>
-      <c r="M91" s="34">
-        <v>833</v>
-      </c>
-      <c r="Q91" s="34">
-        <v>26518</v>
+      <c r="B91" s="1">
+        <v>39</v>
+      </c>
+      <c r="C91" s="39">
+        <v>48</v>
+      </c>
+      <c r="D91" s="39">
+        <v>44</v>
+      </c>
+      <c r="E91" s="39">
+        <v>15649</v>
+      </c>
+      <c r="F91" s="39">
+        <v>15380</v>
+      </c>
+      <c r="G91" s="39">
+        <v>15067</v>
+      </c>
+      <c r="H91" s="39">
+        <v>13409</v>
+      </c>
+      <c r="I91" s="39">
+        <v>14133</v>
+      </c>
+      <c r="J91" s="39">
+        <v>7336</v>
+      </c>
+      <c r="K91" s="39">
+        <v>22877</v>
+      </c>
+      <c r="L91" s="39">
+        <v>263</v>
+      </c>
+      <c r="M91" s="39">
+        <v>1582</v>
+      </c>
+      <c r="Q91" s="39">
+        <v>48489</v>
       </c>
       <c r="R91">
         <v>100</v>
       </c>
       <c r="S91">
-        <v>4.1000000000000003E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="T91">
-        <v>-1.2532000000000001</v>
+        <v>-1.3735999999999999</v>
       </c>
       <c r="U91" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.25">
@@ -5631,55 +5669,55 @@
         <v>81</v>
       </c>
       <c r="B92" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C92" s="1">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D92" s="1">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E92" s="1">
-        <v>2281</v>
+        <v>2006</v>
       </c>
       <c r="F92" s="1">
-        <v>2061</v>
+        <v>2007</v>
       </c>
       <c r="G92" s="1">
-        <v>2192</v>
+        <v>1946</v>
       </c>
       <c r="H92" s="1">
-        <v>2084</v>
+        <v>1901</v>
       </c>
       <c r="I92" s="1">
-        <v>2564</v>
+        <v>1836</v>
       </c>
       <c r="J92" s="1">
-        <v>307</v>
-      </c>
-      <c r="K92" s="34">
-        <v>3704</v>
+        <v>557</v>
+      </c>
+      <c r="K92" s="39">
+        <v>6167</v>
       </c>
       <c r="L92" s="1">
-        <v>434</v>
+        <v>800</v>
       </c>
       <c r="M92" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q92" s="34">
-        <v>12382</v>
+        <v>36</v>
+      </c>
+      <c r="Q92" s="39">
+        <v>22877</v>
       </c>
       <c r="R92">
         <v>50</v>
       </c>
       <c r="S92">
-        <v>2.5999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="T92">
-        <v>0.66500000000000004</v>
+        <v>0.48909999999999998</v>
       </c>
       <c r="U92" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.25">
@@ -5687,55 +5725,55 @@
         <v>82</v>
       </c>
       <c r="B93" s="1">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C93" s="1">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D93" s="1">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E93" s="1">
-        <v>793</v>
+        <v>1001</v>
       </c>
       <c r="F93" s="1">
-        <v>697</v>
+        <v>944</v>
       </c>
       <c r="G93" s="1">
-        <v>722</v>
+        <v>905</v>
       </c>
       <c r="H93" s="1">
-        <v>704</v>
+        <v>933</v>
       </c>
       <c r="I93" s="1">
-        <v>674</v>
+        <v>923</v>
       </c>
       <c r="J93" s="1">
-        <v>9328</v>
-      </c>
-      <c r="K93" s="34">
-        <v>1327</v>
+        <v>274</v>
+      </c>
+      <c r="K93" s="39">
+        <v>2491</v>
       </c>
       <c r="L93" s="1">
-        <v>412</v>
+        <v>772</v>
       </c>
       <c r="M93" s="1">
-        <v>23</v>
-      </c>
-      <c r="Q93" s="34">
-        <v>3704</v>
+        <v>38</v>
+      </c>
+      <c r="Q93" s="39">
+        <v>6167</v>
       </c>
       <c r="R93">
         <v>10</v>
       </c>
       <c r="S93">
-        <v>3.2000000000000002E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="T93">
-        <v>7.2999999999999995E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="U93" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
@@ -5743,43 +5781,43 @@
         <v>83</v>
       </c>
       <c r="B94" s="1">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C94" s="1">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D94" s="1">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E94" s="1">
-        <v>32016</v>
+        <v>27395</v>
       </c>
       <c r="F94" s="1">
-        <v>29011</v>
+        <v>26991</v>
       </c>
       <c r="G94" s="1">
-        <v>26747</v>
+        <v>27559</v>
       </c>
       <c r="H94" s="1">
-        <v>28155</v>
+        <v>27720</v>
       </c>
       <c r="I94" s="1">
-        <v>30695</v>
+        <v>26729</v>
       </c>
       <c r="J94" s="1">
-        <v>70</v>
-      </c>
-      <c r="K94" s="34">
-        <v>755</v>
+        <v>139</v>
+      </c>
+      <c r="K94" s="39">
+        <v>1279</v>
       </c>
       <c r="L94" s="1">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M94" s="1">
-        <v>37</v>
-      </c>
-      <c r="Q94" s="34">
-        <v>1327</v>
+        <v>51</v>
+      </c>
+      <c r="Q94" s="39">
+        <v>2491</v>
       </c>
       <c r="R94">
         <v>5</v>
@@ -5790,43 +5828,43 @@
         <v>84</v>
       </c>
       <c r="B95" s="1">
-        <v>203</v>
+        <v>56</v>
       </c>
       <c r="C95" s="1">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="D95" s="1">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="E95" s="1">
-        <v>1911</v>
+        <v>1092</v>
       </c>
       <c r="F95" s="1">
-        <v>1723</v>
+        <v>1070</v>
       </c>
       <c r="G95" s="1">
-        <v>1762</v>
+        <v>1032</v>
       </c>
       <c r="H95" s="1">
-        <v>1589</v>
+        <v>1018</v>
       </c>
       <c r="I95" s="1">
-        <v>1579</v>
+        <v>1031</v>
       </c>
       <c r="J95" s="1">
-        <v>19</v>
-      </c>
-      <c r="K95" s="34">
-        <v>125</v>
+        <v>36</v>
+      </c>
+      <c r="K95" s="39">
+        <v>231</v>
       </c>
       <c r="L95" s="1">
-        <v>1136</v>
+        <v>2022</v>
       </c>
       <c r="M95" s="1">
-        <v>55</v>
-      </c>
-      <c r="Q95" s="34">
-        <v>755</v>
+        <v>104</v>
+      </c>
+      <c r="Q95" s="39">
+        <v>1279</v>
       </c>
       <c r="R95">
         <v>2.5</v>
@@ -5837,43 +5875,43 @@
         <v>85</v>
       </c>
       <c r="B96" s="1">
+        <v>17</v>
+      </c>
+      <c r="C96" s="1">
+        <v>17</v>
+      </c>
+      <c r="D96" s="1">
+        <v>17</v>
+      </c>
+      <c r="E96" s="1">
+        <v>18</v>
+      </c>
+      <c r="F96" s="1">
+        <v>18</v>
+      </c>
+      <c r="G96" s="1">
+        <v>17</v>
+      </c>
+      <c r="H96" s="1">
+        <v>17</v>
+      </c>
+      <c r="I96" s="1">
+        <v>18</v>
+      </c>
+      <c r="J96" s="1">
+        <v>23</v>
+      </c>
+      <c r="K96" s="39">
+        <v>121</v>
+      </c>
+      <c r="L96" s="1">
         <v>10</v>
       </c>
-      <c r="C96" s="1">
-        <v>10</v>
-      </c>
-      <c r="D96" s="1">
-        <v>10</v>
-      </c>
-      <c r="E96" s="1">
-        <v>10</v>
-      </c>
-      <c r="F96" s="1">
-        <v>10</v>
-      </c>
-      <c r="G96" s="1">
-        <v>10</v>
-      </c>
-      <c r="H96" s="1">
-        <v>10</v>
-      </c>
-      <c r="I96" s="1">
-        <v>10</v>
-      </c>
-      <c r="J96" s="1">
-        <v>12</v>
-      </c>
-      <c r="K96" s="34">
-        <v>62</v>
-      </c>
-      <c r="L96" s="1">
-        <v>6</v>
-      </c>
       <c r="M96" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q96" s="34">
-        <v>125</v>
+        <v>18</v>
+      </c>
+      <c r="Q96" s="39">
+        <v>231</v>
       </c>
       <c r="R96">
         <v>0.5</v>
@@ -5884,43 +5922,43 @@
         <v>86</v>
       </c>
       <c r="B97" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C97" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D97" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E97" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F97" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G97" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H97" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I97" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J97" s="1">
+        <v>20</v>
+      </c>
+      <c r="K97" s="39">
+        <v>57</v>
+      </c>
+      <c r="L97" s="1">
+        <v>10</v>
+      </c>
+      <c r="M97" s="1">
         <v>9</v>
       </c>
-      <c r="K97" s="34">
-        <v>24</v>
-      </c>
-      <c r="L97" s="1">
-        <v>5</v>
-      </c>
-      <c r="M97" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q97" s="34">
-        <v>62</v>
+      <c r="Q97" s="39">
+        <v>121</v>
       </c>
       <c r="R97">
         <v>0.25</v>
@@ -5938,8 +5976,8 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
-      <c r="Q98" s="34">
-        <v>24</v>
+      <c r="Q98" s="39">
+        <v>57</v>
       </c>
       <c r="R98">
         <v>0.1</v>
@@ -5981,13 +6019,13 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="R100" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S100" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T100" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.25">
@@ -6007,11 +6045,11 @@
       </c>
       <c r="S101">
         <f>(R101-$T$93)/$S$93</f>
-        <v>352.1875</v>
+        <v>595.6</v>
       </c>
       <c r="T101">
         <f>S101/R101</f>
-        <v>293.48958333333337</v>
+        <v>496.33333333333337</v>
       </c>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.25">
@@ -6035,11 +6073,11 @@
       </c>
       <c r="S102">
         <f>(R102-$T$93)/$S$93</f>
-        <v>758.4375</v>
+        <v>1245.5999999999999</v>
       </c>
       <c r="T102">
-        <f t="shared" ref="T102:T103" si="20">S102/R102</f>
-        <v>303.375</v>
+        <f t="shared" ref="T102:T103" si="19">S102/R102</f>
+        <v>498.23999999999995</v>
       </c>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.25">
@@ -6063,11 +6101,11 @@
       </c>
       <c r="S103">
         <f>(R103-$T$93)/$S$93</f>
-        <v>52.187499999999993</v>
+        <v>115.6</v>
       </c>
       <c r="T103">
-        <f t="shared" si="20"/>
-        <v>217.44791666666666</v>
+        <f t="shared" si="19"/>
+        <v>481.66666666666669</v>
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.25">
@@ -6176,7 +6214,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -6238,22 +6276,22 @@
       <c r="M112" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Y112" s="35" t="s">
+      <c r="Y112" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="Z112" s="35" t="s">
+      <c r="Z112" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="AA112" s="35" t="s">
+      <c r="AA112" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="AB112" s="35" t="s">
+      <c r="AB112" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="AC112" s="35" t="s">
+      <c r="AC112" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="AD112" s="35" t="s">
+      <c r="AD112" s="40" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6262,115 +6300,115 @@
         <v>79</v>
       </c>
       <c r="B113" s="1">
-        <v>6.5699999999999995E-2</v>
+        <v>7.2099999999999997E-2</v>
       </c>
       <c r="C113" s="1">
-        <v>0.39419999999999999</v>
+        <v>8.5300000000000001E-2</v>
       </c>
       <c r="D113" s="1">
-        <v>6.5699999999999995E-2</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="E113" s="1">
-        <v>8.0699999999999994E-2</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="F113" s="1">
-        <v>7.0099999999999996E-2</v>
+        <v>7.3400000000000007E-2</v>
       </c>
       <c r="G113" s="1">
-        <v>6.1699999999999998E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="H113" s="1">
-        <v>8.1100000000000005E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="I113" s="1">
-        <v>7.0900000000000005E-2</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="J113" s="1">
-        <v>5.1400000000000001E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="K113" s="1">
-        <v>5.1700000000000003E-2</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="L113" s="1">
-        <v>9.6699999999999994E-2</v>
+        <v>7.22E-2</v>
       </c>
       <c r="M113" s="1">
-        <v>4.82E-2</v>
-      </c>
-      <c r="Y113" s="35" t="s">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="Y113" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Z113" s="37">
+      <c r="Z113" s="41">
         <f>AVERAGE(B119:D119)</f>
-        <v>5.1633333333333337E-2</v>
-      </c>
-      <c r="AA113" s="35"/>
-      <c r="AB113" s="35"/>
-      <c r="AC113" s="35"/>
-      <c r="AD113" s="35"/>
+        <v>5.8966666666666667E-2</v>
+      </c>
+      <c r="AA113" s="41"/>
+      <c r="AB113" s="41"/>
+      <c r="AC113" s="41"/>
+      <c r="AD113" s="41"/>
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B114" s="1">
-        <v>6.4199999999999993E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="C114" s="1">
-        <v>7.2300000000000003E-2</v>
+        <v>0.1065</v>
       </c>
       <c r="D114" s="1">
-        <v>6.5600000000000006E-2</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="E114" s="1">
-        <v>6.6799999999999998E-2</v>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="F114" s="1">
-        <v>6.1100000000000002E-2</v>
+        <v>7.7899999999999997E-2</v>
       </c>
       <c r="G114" s="1">
-        <v>7.2099999999999997E-2</v>
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="H114" s="1">
-        <v>0.1323</v>
+        <v>8.43E-2</v>
       </c>
       <c r="I114" s="1">
-        <v>7.0999999999999994E-2</v>
+        <v>0.14660000000000001</v>
       </c>
       <c r="J114" s="1">
-        <v>4.8099999999999997E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="K114" s="1">
-        <v>5.04E-2</v>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="L114" s="1">
-        <v>0.1462</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="M114" s="1">
-        <v>4.6300000000000001E-2</v>
-      </c>
-      <c r="Y114" s="35" t="s">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="Y114" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="Z114" s="37">
-        <f>(E119-$Z$113)/1.66</f>
-        <v>9.4377510040160283E-4</v>
-      </c>
-      <c r="AA114" s="37">
-        <f t="shared" ref="AA114:AD114" si="21">(F119-$Z$113)/1.66</f>
-        <v>1.4257028112449777E-3</v>
-      </c>
-      <c r="AB114" s="37">
-        <f t="shared" si="21"/>
-        <v>2.0281124497991952E-3</v>
-      </c>
-      <c r="AC114" s="37">
-        <f t="shared" si="21"/>
-        <v>2.0281124497991952E-3</v>
-      </c>
-      <c r="AD114" s="37">
-        <f t="shared" si="21"/>
-        <v>2.5100401606425698E-3</v>
+      <c r="Z114" s="41">
+        <f t="shared" ref="Z114:AD114" si="20">(E119-$Z$113)/1.66</f>
+        <v>8.5742971887550201E-3</v>
+      </c>
+      <c r="AA114" s="41">
+        <f t="shared" si="20"/>
+        <v>5.983935742971889E-3</v>
+      </c>
+      <c r="AB114" s="41">
+        <f t="shared" si="20"/>
+        <v>1.3514056224899599E-2</v>
+      </c>
+      <c r="AC114" s="41">
+        <f t="shared" si="20"/>
+        <v>3.634538152610443E-3</v>
+      </c>
+      <c r="AD114" s="41">
+        <f t="shared" si="20"/>
+        <v>1.1345381526104415E-2</v>
       </c>
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.25">
@@ -6378,40 +6416,40 @@
         <v>81</v>
       </c>
       <c r="B115" s="1">
-        <v>7.0699999999999999E-2</v>
+        <v>7.85E-2</v>
       </c>
       <c r="C115" s="1">
-        <v>7.1400000000000005E-2</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="D115" s="1">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="E115" s="1">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="F115" s="1">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="E115" s="1">
-        <v>5.9799999999999999E-2</v>
-      </c>
-      <c r="F115" s="1">
-        <v>6.0299999999999999E-2</v>
-      </c>
       <c r="G115" s="1">
-        <v>5.9900000000000002E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="H115" s="1">
-        <v>6.3E-2</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="I115" s="1">
-        <v>6.1199999999999997E-2</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="J115" s="1">
         <v>4.65E-2</v>
       </c>
       <c r="K115" s="1">
-        <v>4.7500000000000001E-2</v>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="L115" s="1">
-        <v>6.3200000000000006E-2</v>
+        <v>5.9799999999999999E-2</v>
       </c>
       <c r="M115" s="1">
-        <v>4.6800000000000001E-2</v>
+        <v>4.65E-2</v>
       </c>
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.25">
@@ -6419,40 +6457,40 @@
         <v>82</v>
       </c>
       <c r="B116" s="1">
-        <v>6.1199999999999997E-2</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="C116" s="1">
-        <v>6.0600000000000001E-2</v>
+        <v>7.4300000000000005E-2</v>
       </c>
       <c r="D116" s="1">
-        <v>6.13E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="E116" s="1">
-        <v>5.67E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F116" s="1">
-        <v>6.1199999999999997E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="G116" s="1">
-        <v>5.8900000000000001E-2</v>
+        <v>6.0499999999999998E-2</v>
       </c>
       <c r="H116" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>6.3799999999999996E-2</v>
       </c>
       <c r="I116" s="1">
-        <v>5.8200000000000002E-2</v>
+        <v>7.2599999999999998E-2</v>
       </c>
       <c r="J116" s="1">
-        <v>4.8399999999999999E-2</v>
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="K116" s="1">
-        <v>5.0700000000000002E-2</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="L116" s="1">
-        <v>6.4100000000000004E-2</v>
+        <v>7.0400000000000004E-2</v>
       </c>
       <c r="M116" s="1">
-        <v>4.6399999999999997E-2</v>
+        <v>4.6899999999999997E-2</v>
       </c>
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.25">
@@ -6460,40 +6498,40 @@
         <v>83</v>
       </c>
       <c r="B117" s="1">
-        <v>6.3899999999999998E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="C117" s="1">
-        <v>6.0999999999999999E-2</v>
+        <v>7.5600000000000001E-2</v>
       </c>
       <c r="D117" s="1">
-        <v>6.0299999999999999E-2</v>
+        <v>7.9699999999999993E-2</v>
       </c>
       <c r="E117" s="1">
-        <v>5.74E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="F117" s="1">
-        <v>5.7799999999999997E-2</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="G117" s="1">
-        <v>5.6399999999999999E-2</v>
+        <v>6.2300000000000001E-2</v>
       </c>
       <c r="H117" s="1">
-        <v>5.9900000000000002E-2</v>
+        <v>7.1099999999999997E-2</v>
       </c>
       <c r="I117" s="1">
-        <v>5.7500000000000002E-2</v>
+        <v>8.3500000000000005E-2</v>
       </c>
       <c r="J117" s="1">
-        <v>4.87E-2</v>
+        <v>4.65E-2</v>
       </c>
       <c r="K117" s="1">
-        <v>4.6199999999999998E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="L117" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>0.10290000000000001</v>
       </c>
       <c r="M117" s="1">
-        <v>4.6699999999999998E-2</v>
+        <v>4.8099999999999997E-2</v>
       </c>
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.25">
@@ -6501,82 +6539,81 @@
         <v>84</v>
       </c>
       <c r="B118" s="1">
-        <v>6.4699999999999994E-2</v>
+        <v>8.0799999999999997E-2</v>
       </c>
       <c r="C118" s="1">
-        <v>5.9900000000000002E-2</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="D118" s="1">
-        <v>5.9900000000000002E-2</v>
+        <v>7.22E-2</v>
       </c>
       <c r="E118" s="1">
-        <v>5.7099999999999998E-2</v>
+        <v>6.3600000000000004E-2</v>
       </c>
       <c r="F118" s="1">
-        <v>5.7500000000000002E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="G118" s="1">
-        <v>5.7099999999999998E-2</v>
+        <v>7.9100000000000004E-2</v>
       </c>
       <c r="H118" s="1">
-        <v>6.1600000000000002E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="I118" s="1">
-        <v>5.9700000000000003E-2</v>
+        <v>6.3899999999999998E-2</v>
       </c>
       <c r="J118" s="1">
-        <v>4.7199999999999999E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="K118" s="1">
-        <v>4.58E-2</v>
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="L118" s="1">
-        <v>6.5699999999999995E-2</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="M118" s="1">
-        <v>4.65E-2</v>
-      </c>
-      <c r="AA118" s="43"/>
+        <v>4.7300000000000002E-2</v>
+      </c>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B119" s="36">
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="C119" s="36">
-        <v>5.0099999999999999E-2</v>
-      </c>
-      <c r="D119" s="36">
-        <v>5.0200000000000002E-2</v>
-      </c>
-      <c r="E119" s="36">
-        <v>5.3199999999999997E-2</v>
-      </c>
-      <c r="F119" s="36">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="G119" s="36">
-        <v>5.5E-2</v>
-      </c>
-      <c r="H119" s="36">
-        <v>5.5E-2</v>
-      </c>
-      <c r="I119" s="36">
-        <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="J119" s="36">
-        <v>5.0200000000000002E-2</v>
-      </c>
-      <c r="K119" s="36">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="L119" s="36">
-        <v>5.9200000000000003E-2</v>
-      </c>
-      <c r="M119" s="36">
-        <v>4.6699999999999998E-2</v>
+      <c r="B119" s="39">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="C119" s="39">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="D119" s="39">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="E119" s="39">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="F119" s="39">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="G119" s="39">
+        <v>8.14E-2</v>
+      </c>
+      <c r="H119" s="39">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I119" s="39">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="J119" s="39">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="K119" s="39">
+        <v>5.11E-2</v>
+      </c>
+      <c r="L119" s="39">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="M119" s="39">
+        <v>4.6300000000000001E-2</v>
       </c>
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.25">
@@ -6584,40 +6621,40 @@
         <v>86</v>
       </c>
       <c r="B120" s="1">
-        <v>5.8400000000000001E-2</v>
+        <v>6.0499999999999998E-2</v>
       </c>
       <c r="C120" s="1">
-        <v>5.8299999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D120" s="1">
-        <v>5.7799999999999997E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="E120" s="1">
-        <v>6.0100000000000001E-2</v>
+        <v>5.91E-2</v>
       </c>
       <c r="F120" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G120" s="1">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="H120" s="1">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="I120" s="1">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="G120" s="1">
-        <v>5.79E-2</v>
-      </c>
-      <c r="H120" s="1">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="I120" s="1">
-        <v>6.0900000000000003E-2</v>
-      </c>
       <c r="J120" s="1">
-        <v>4.5499999999999999E-2</v>
+        <v>5.3100000000000001E-2</v>
       </c>
       <c r="K120" s="1">
-        <v>4.9000000000000002E-2</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="L120" s="1">
-        <v>6.4299999999999996E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="M120" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>5.91E-2</v>
       </c>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.25">
@@ -6755,16 +6792,15 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="V55:W55"/>
     <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="W48:X48"/>
     <mergeCell ref="V51:W51"/>
     <mergeCell ref="V52:W52"/>
     <mergeCell ref="V53:W53"/>
     <mergeCell ref="V54:W54"/>
-    <mergeCell ref="V55:W55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>